--- a/search_news_web_scraping/noticias.xlsx
+++ b/search_news_web_scraping/noticias.xlsx
@@ -453,107 +453,107 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2 brasileiros morreram no ataque do Hamas em rave; uma está desaparecida</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>'A gente tem fé que a Karla está viva', diz amiga de desaparecidaHá 2 horas</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Netanyahu e oposição fecham acordo para governo de emergência </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/rj/rio-de-janeiro/noticia/2023/10/10/bruna-israel.ghtml</t>
+          <t>https://g1.globo.com/mundo/noticia/2023/10/11/premie-de-israel-forma-governo-de-emergencia-com-oposicao-e-monta-gabinete-de-guerra.ghtml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Quem é o chefe do Hamas apontado como mentor dos ataques</t>
+          <t>Imagens de satélite mostram Gaza antes e após bombardeios de Israel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Como são os cerca de 1,5 milhão de bunkers em IsraelHá 4 horas</t>
+          <t>Palestino que vive em SP diz que perdeu 10 parentes em GazaHá 3 horas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/mundo/blog/sandra-cohen/post/2023/10/10/quem-e-yahya-sinwar-o-chefe-do-hamas-em-gaza-procurado-por-israel.ghtml</t>
+          <t>https://g1.globo.com/mundo/noticia/2023/10/11/imagens-de-satelite-mostram-gaza-antes-e-depois-dos-bombardeios-de-israel-veja.ghtml</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Faixa de Gaza é 'prisão a céu aberto', descreve especialista </t>
+          <t>Novo voo com mais de 200 brasileiros resgatados deixa Israel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/mundo/noticia/2023/10/10/faixa-de-gaza-e-prisao-a-ceu-aberto-descreve-especialista.ghtml</t>
+          <t>https://g1.globo.com/rj/rio-de-janeiro/noticia/2023/10/11/voo-com-mais-de-200-brasileiros-deixa-israel-com-destino-ao-rio.ghtml</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VÍDEOS: Israel bombardeia homem que tentava cruzar fronteira</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Chefe militar do Hamas arquitetou massacre e tomada de reféns</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hamas e Jihad Islâmica receberam R$ 680 milhões em criptomoedas, dizem jornaisHá 3 horas</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/playlist/videos-para-assistir-agora.ghtml</t>
+          <t>https://g1.globo.com/mundo/blog/sandra-cohen/post/2023/10/11/comandante-militar-do-hamas-mohammed-deif-arquitetou-o-massacre-de-1200-israelenses-e-a-tomada-de-150-refens.ghtml</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Biden declara apoio a Israel e promete verba para ajuda militar</t>
+          <t>Vítimas do Hamas se escondem, gravam vídeo e aparecem mortas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Para a ONU, há evidências de crimes de guerra de Israel e HamasHá 2 horas</t>
+          <t>Hamas, Fatah, Jihad Islâmica e Hezbollah: entenda cada umHá 12 horas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/mundo/noticia/2023/10/10/joe-biden-conversa-com-netanyahu-sobre-a-guerra-eua-nao-vao-enviar-soldados.ghtml</t>
+          <t>https://g1.globo.com/mundo/noticia/2023/10/11/antes-e-depois-de-assassinatos-em-base-de-israel-vitimas-gravam-video-se-escondendo-de-tiros-depois-aparecem-mortas-em-imagens-do-hamas.ghtml</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Projeto para proibir casamento LGBTQIA+ avança na Câmara</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>Lula condena Hamas por manter crianças reféns e Israel por ataques</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brasil tem posição clara contra terrorismo, diz ItamaratyHá 8 horas</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/politica/noticia/2023/10/10/comissao-da-camara-aprova-projeto-para-proibir-casamento-entre-pessoas-do-mesmo-sexo.ghtml</t>
+          <t>https://g1.globo.com/politica/noticia/2023/10/11/lula-publica-apelo-em-defesa-de-criancas-palestinas-e-israelenses.ghtml</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nas faculdades privadas, 72% dos novos alunos em 2022 optaram pela EAD</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Taxa de analfabetismo dobra entre crianças de 7 a 9 anos no BrasilHá 26 minutos</t>
-        </is>
-      </c>
+          <t>É #FAKE que foto mostre Lula ao lado do 'chefe' do Hamas</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/educacao/noticia/2023/10/10/dados-censo-educacao-superior-2022.ghtml</t>
+          <t>https://g1.globo.com/fato-ou-fake/noticia/2023/10/11/e-fake-que-foto-mostre-lula-ao-lado-do-chefe-do-hamas-trata-se-do-presidente-do-ira.ghtml</t>
         </is>
       </c>
     </row>
